--- a/Planilha de controle de notas ok/Planilha de Controle de Notas do 6º Ano B com nome dos alunos OK.xlsx
+++ b/Planilha de controle de notas ok/Planilha de Controle de Notas do 6º Ano B com nome dos alunos OK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prof.WJNas\OneDrive - 7qfr6r\Documentos\Eduacação\Planilha de controle de notas ok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prof.WJNas\OneDrive - 7qfr6r\Documentos\I-EducarSeducTNEPL\Planilha de controle de notas ok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8192AFD7-1E5A-4B78-920B-2E175020BA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5A3B97-AB64-4932-A63C-826BC2874402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{2241FCD5-535D-45D6-8B4B-9EC1AE409271}"/>
   </bookViews>
@@ -288,7 +288,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,25 +336,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -364,6 +345,18 @@
       <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -776,26 +769,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -806,26 +779,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -847,115 +800,155 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,162 +957,15 @@
   <dxfs count="58">
     <dxf>
       <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -1130,7 +976,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="8"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1144,7 +990,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="8"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1157,7 +1003,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="8"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1170,7 +1016,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="8"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1198,7 +1044,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="8"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1228,7 +1074,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -1239,7 +1085,7 @@
         <patternFill patternType="none"/>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1252,8 +1098,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1264,450 +1108,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="8"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1743,7 +1144,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="8"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1779,7 +1180,430 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1800,7 +1624,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="8"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1820,7 +1644,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -1840,15 +1664,162 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
@@ -1885,46 +1856,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60C1C0E5-0599-4F82-AA2B-F77692226CAA}" name="Tabela6" displayName="Tabela6" ref="B3:Y35" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60C1C0E5-0599-4F82-AA2B-F77692226CAA}" name="Tabela6" displayName="Tabela6" ref="B3:Y35" totalsRowShown="0" headerRowDxfId="57" dataDxfId="0">
   <autoFilter ref="B3:Y35" xr:uid="{60C1C0E5-0599-4F82-AA2B-F77692226CAA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:Y34">
     <sortCondition ref="C3:C34"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{292226EA-D87D-412A-8825-995EA4F51378}" name="Nº" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{FCA1DC07-0DE1-4933-8915-E1395BF680E8}" name="Nome" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{DC59BB20-50CF-423F-8A35-B2650D22FD2C}" name="1ª Av." dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{9A00827D-AE46-4EF8-8E52-9E51DC832165}" name="2ª Av." dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{7C7F07DF-89E6-4EAC-8A6D-C39B7433D5BE}" name="3ª Av." dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{220A6DCE-8228-40A1-992C-6CE79C82A96D}" name="4ª Av." dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{72A95FA8-581A-497D-8E44-307ABF0D4650}" name="RU" dataDxfId="49">
+    <tableColumn id="1" xr3:uid="{292226EA-D87D-412A-8825-995EA4F51378}" name="Nº" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{FCA1DC07-0DE1-4933-8915-E1395BF680E8}" name="Nome" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{DC59BB20-50CF-423F-8A35-B2650D22FD2C}" name="1ª Av." dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{9A00827D-AE46-4EF8-8E52-9E51DC832165}" name="2ª Av." dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{7C7F07DF-89E6-4EAC-8A6D-C39B7433D5BE}" name="3ª Av." dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{220A6DCE-8228-40A1-992C-6CE79C82A96D}" name="4ª Av." dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{72A95FA8-581A-497D-8E44-307ABF0D4650}" name="RU" dataDxfId="18">
       <calculatedColumnFormula>SUM(D4,E4,F4,G4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{84153F3B-3518-4794-96B7-2FDFB8F5CE4A}" name="RP" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{896D0637-4B07-4C33-974F-35E286DE259B}" name="1ª Av.2" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{7825497E-6D14-4C0B-AED9-C77BD7AC61CC}" name="2ª Av.2" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{2875F7CA-CDB6-454E-9E3D-D72DDC4EC61D}" name="3ª Av.2" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{E1399F39-A4FF-4EFB-BA52-ED0C2BE9B718}" name="4ª Av.2" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{62A7AE85-1B5E-4B5B-851B-95DC2C6CA646}" name="RU " dataDxfId="43">
+    <tableColumn id="8" xr3:uid="{84153F3B-3518-4794-96B7-2FDFB8F5CE4A}" name="RP" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{896D0637-4B07-4C33-974F-35E286DE259B}" name="1ª Av.2" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{7825497E-6D14-4C0B-AED9-C77BD7AC61CC}" name="2ª Av.2" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{2875F7CA-CDB6-454E-9E3D-D72DDC4EC61D}" name="3ª Av.2" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{E1399F39-A4FF-4EFB-BA52-ED0C2BE9B718}" name="4ª Av.2" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{62A7AE85-1B5E-4B5B-851B-95DC2C6CA646}" name="RU " dataDxfId="12">
       <calculatedColumnFormula>IFERROR(SUM(J4,K4,L4,M4),"-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{C84A0305-8AD2-4EA3-BF76-68A1ECFDB182}" name="RP2" dataDxfId="42"/>
-    <tableColumn id="15" xr3:uid="{6B7D125F-4A0F-4BD2-BB77-A6C6CFB399B6}" name="1ª Av.3" dataDxfId="41"/>
-    <tableColumn id="16" xr3:uid="{BC4A6509-AC20-49A1-BF5D-B6E2B4A5920D}" name="2ª Av.3" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{35A341D5-B0FB-4F32-8EBF-0DC77FE218E8}" name="3ª Av.3" dataDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{001FE447-7CFC-4A18-8F41-9BFDCEE3D44E}" name="4ª Av.3" dataDxfId="38"/>
-    <tableColumn id="19" xr3:uid="{4DF14B41-C0B9-445C-93F4-1F2AB2B56E41}" name="RU2" dataDxfId="37">
+    <tableColumn id="14" xr3:uid="{C84A0305-8AD2-4EA3-BF76-68A1ECFDB182}" name="RP2" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{6B7D125F-4A0F-4BD2-BB77-A6C6CFB399B6}" name="1ª Av.3" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{BC4A6509-AC20-49A1-BF5D-B6E2B4A5920D}" name="2ª Av.3" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{35A341D5-B0FB-4F32-8EBF-0DC77FE218E8}" name="3ª Av.3" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{001FE447-7CFC-4A18-8F41-9BFDCEE3D44E}" name="4ª Av.3" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{4DF14B41-C0B9-445C-93F4-1F2AB2B56E41}" name="RU2" dataDxfId="6">
       <calculatedColumnFormula>IFERROR(SUM(P4,Q4,R4,S4),"-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{538C38AB-C06E-4F9F-AE24-94FF4391B227}" name="TP" dataDxfId="36">
+    <tableColumn id="20" xr3:uid="{538C38AB-C06E-4F9F-AE24-94FF4391B227}" name="TP" dataDxfId="5">
       <calculatedColumnFormula>SUM(H4,N4,T4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{10C93921-F2BC-4D95-8496-7D5D3646E3E5}" name="MC" dataDxfId="35">
+    <tableColumn id="21" xr3:uid="{10C93921-F2BC-4D95-8496-7D5D3646E3E5}" name="MC" dataDxfId="4">
       <calculatedColumnFormula>AVERAGE(H4,N4,T4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{2EE47EC1-3484-4B9B-BFBC-1E1DDD476530}" name="AF" dataDxfId="34"/>
-    <tableColumn id="23" xr3:uid="{CB2DC765-A3EB-4598-A4E1-9363E29FA680}" name="RF" dataDxfId="33"/>
-    <tableColumn id="24" xr3:uid="{A265C18E-3A46-4277-921A-1F6FE8045607}" name="Situação" dataDxfId="32">
+    <tableColumn id="22" xr3:uid="{2EE47EC1-3484-4B9B-BFBC-1E1DDD476530}" name="AF" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{CB2DC765-A3EB-4598-A4E1-9363E29FA680}" name="RF" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{A265C18E-3A46-4277-921A-1F6FE8045607}" name="Situação" dataDxfId="1">
       <calculatedColumnFormula>IF(V4&gt;=5,"APROVADO","PROVÃO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2232,47 +2203,53 @@
   <dimension ref="A1:AQ35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Y1"/>
+      <selection activeCell="AC36" sqref="AC36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" customWidth="1"/>
-    <col min="4" max="20" width="6.42578125" customWidth="1"/>
-    <col min="21" max="24" width="5.85546875" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="7" width="3" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" customWidth="1"/>
+    <col min="9" max="13" width="3" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" customWidth="1"/>
+    <col min="15" max="19" width="3" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" customWidth="1"/>
+    <col min="21" max="22" width="4.7109375" customWidth="1"/>
+    <col min="23" max="24" width="4" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" customWidth="1"/>
     <col min="26" max="26" width="8" customWidth="1"/>
     <col min="27" max="43" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" s="2" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="81" t="s">
+    <row r="1" spans="2:43" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="83"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="41"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
@@ -2286,32 +2263,32 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="2:43" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:43" s="6" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="90" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="92"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -2330,7 +2307,7 @@
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
     </row>
-    <row r="3" spans="2:43" s="19" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:43" s="19" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -2404,798 +2381,798 @@
         <v>26</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="79" t="s">
+      <c r="AA3" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
       <c r="AE3" s="15">
         <f>IFERROR(AVERAGE(H4:H11),"-")</f>
-        <v>3.6874999999999996</v>
+        <v>4</v>
       </c>
       <c r="AF3" s="16"/>
-      <c r="AG3" s="79" t="s">
+      <c r="AG3" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
       <c r="AK3" s="15">
         <f>IFERROR(AVERAGE(N4:N11),"-")</f>
         <v>4.2874999999999996</v>
       </c>
       <c r="AL3" s="17"/>
-      <c r="AM3" s="77" t="s">
+      <c r="AM3" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
       <c r="AQ3" s="18">
         <f>IFERROR(AVERAGE(T4:T11),"-")</f>
         <v>1.75</v>
       </c>
     </row>
-    <row r="4" spans="2:43" s="33" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21" t="s">
+    <row r="4" spans="2:43" s="25" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="67">
+        <v>1</v>
+      </c>
+      <c r="C4" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="22">
-        <v>1</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="D4" s="69">
+        <v>1</v>
+      </c>
+      <c r="E4" s="69">
         <v>0.8</v>
       </c>
-      <c r="F4" s="22">
-        <v>1</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="F4" s="69">
+        <v>1</v>
+      </c>
+      <c r="G4" s="69">
         <v>4</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="70">
         <f>SUM(D4,E4,F4,G4)</f>
         <v>6.8</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="63">
+      <c r="I4" s="71"/>
+      <c r="J4" s="37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="64">
-        <v>1</v>
-      </c>
-      <c r="M4" s="64">
+      <c r="L4" s="38">
+        <v>1</v>
+      </c>
+      <c r="M4" s="38">
         <v>3.5</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="70">
         <f t="shared" ref="N4:N35" si="0">IFERROR(SUM(J4,K4,L4,M4),"-")</f>
         <v>5.6</v>
       </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="22">
+      <c r="O4" s="71"/>
+      <c r="P4" s="69">
         <v>1.5</v>
       </c>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22">
-        <v>1</v>
-      </c>
-      <c r="S4" s="22"/>
-      <c r="T4" s="23">
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69">
+        <v>1</v>
+      </c>
+      <c r="S4" s="69"/>
+      <c r="T4" s="70">
         <f t="shared" ref="T4:T35" si="1">IFERROR(SUM(P4,Q4,R4,S4),"-")</f>
         <v>2.5</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4" s="72">
         <f t="shared" ref="U4:U35" si="2">SUM(H4,N4,T4)</f>
         <v>14.899999999999999</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4" s="73">
         <f t="shared" ref="V4:V35" si="3">AVERAGE(H4,N4,T4)</f>
         <v>4.9666666666666659</v>
       </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="27" t="str">
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="74" t="str">
         <f t="shared" ref="Y4:Y35" si="4">IF(V4&gt;=5,"APROVADO","PROVÃO")</f>
         <v>PROVÃO</v>
       </c>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="69" t="s">
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="29">
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="21">
         <f>MAX(H4:H11)</f>
         <v>6.8</v>
       </c>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="69" t="s">
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="29">
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="21">
         <f>MAX(N4:N11)</f>
         <v>6.3</v>
       </c>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="71" t="s">
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="32">
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="24">
         <f>MAX(T4:T11)</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="2:43" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34">
+    <row r="5" spans="2:43" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="75">
         <v>2</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="E5" s="36">
-        <v>0.6</v>
-      </c>
-      <c r="F5" s="36">
-        <v>1</v>
-      </c>
-      <c r="G5" s="36">
-        <v>1</v>
-      </c>
-      <c r="H5" s="37">
+      <c r="D5" s="77">
+        <v>1.4</v>
+      </c>
+      <c r="E5" s="77">
+        <v>1.6</v>
+      </c>
+      <c r="F5" s="77">
+        <v>1</v>
+      </c>
+      <c r="G5" s="77">
+        <v>1</v>
+      </c>
+      <c r="H5" s="78">
         <f t="shared" ref="H5:H35" si="5">SUM(D5,E5,F5,G5)</f>
-        <v>3.4</v>
-      </c>
-      <c r="I5" s="38">
         <v>5</v>
       </c>
-      <c r="J5" s="63">
+      <c r="I5" s="79">
+        <v>5</v>
+      </c>
+      <c r="J5" s="37">
         <v>0.4</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="37">
         <v>0.1</v>
       </c>
-      <c r="L5" s="64">
-        <v>1</v>
-      </c>
-      <c r="M5" s="64">
+      <c r="L5" s="38">
+        <v>1</v>
+      </c>
+      <c r="M5" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="78">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="79">
         <v>5</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="77">
         <v>0.9</v>
       </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36">
-        <v>1</v>
-      </c>
-      <c r="S5" s="36"/>
-      <c r="T5" s="37">
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77">
+        <v>1</v>
+      </c>
+      <c r="S5" s="77"/>
+      <c r="T5" s="78">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="U5" s="39">
+      <c r="U5" s="80">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="V5" s="81">
+        <f t="shared" si="3"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="82" t="str">
+        <f t="shared" si="4"/>
+        <v>PROVÃO</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="21">
+        <f>MIN(H4:H11)</f>
+        <v>1.4</v>
+      </c>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="21">
+        <f>MIN(N4:N11)</f>
+        <v>2.1</v>
+      </c>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="24">
+        <f>MIN(T4:T11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:43" s="25" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="67">
+        <v>3</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="69">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="69">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="69">
+        <v>1</v>
+      </c>
+      <c r="G6" s="69">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="70">
+        <f t="shared" si="5"/>
+        <v>3.3</v>
+      </c>
+      <c r="I6" s="71">
+        <v>3</v>
+      </c>
+      <c r="J6" s="37">
+        <v>1.4</v>
+      </c>
+      <c r="K6" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="L6" s="38">
+        <v>1</v>
+      </c>
+      <c r="M6" s="38">
+        <v>2.5</v>
+      </c>
+      <c r="N6" s="70">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="O6" s="71"/>
+      <c r="P6" s="69">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69">
+        <v>1</v>
+      </c>
+      <c r="S6" s="69"/>
+      <c r="T6" s="70">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="U6" s="72">
+        <f t="shared" si="2"/>
+        <v>10.9</v>
+      </c>
+      <c r="V6" s="73">
+        <f t="shared" si="3"/>
+        <v>3.6333333333333333</v>
+      </c>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>PROVÃO</v>
+      </c>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="26">
+        <f>COUNTIF(H4:H11,"&gt;="&amp;7)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="26">
+        <f>COUNTIF(N4:N11,"&gt;="&amp;7)</f>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN6" s="58"/>
+      <c r="AO6" s="58"/>
+      <c r="AP6" s="58"/>
+      <c r="AQ6" s="29">
+        <f>COUNTIF(T4:T11,"&gt;="&amp;7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:43" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="75">
+        <v>4</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="77">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="77">
+        <v>1</v>
+      </c>
+      <c r="G7" s="77">
+        <v>2</v>
+      </c>
+      <c r="H7" s="78">
+        <f t="shared" si="5"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I7" s="79">
+        <v>3.3</v>
+      </c>
+      <c r="J7" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="K7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="38">
+        <v>1</v>
+      </c>
+      <c r="M7" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="78">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="O7" s="79">
+        <v>5</v>
+      </c>
+      <c r="P7" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77">
+        <v>1</v>
+      </c>
+      <c r="S7" s="77"/>
+      <c r="T7" s="78">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="U7" s="80">
+        <f t="shared" si="2"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="V7" s="81">
+        <f t="shared" si="3"/>
+        <v>2.8666666666666671</v>
+      </c>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="82" t="str">
+        <f t="shared" si="4"/>
+        <v>PROVÃO</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="30">
+        <f>COUNTIF(H4:H11,"&lt;"&amp;7)</f>
+        <v>8</v>
+      </c>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="30">
+        <f>COUNTIF(N4:N11,"&lt;"&amp;7)</f>
+        <v>8</v>
+      </c>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="62"/>
+      <c r="AQ7" s="31">
+        <f>COUNTIF(T4:T11,"&lt;"&amp;7)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:43" s="25" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="67">
+        <v>5</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="69">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69">
+        <v>1</v>
+      </c>
+      <c r="G8" s="69"/>
+      <c r="H8" s="70">
+        <f t="shared" si="5"/>
+        <v>1.4</v>
+      </c>
+      <c r="I8" s="71"/>
+      <c r="J8" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="K8" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="L8" s="38">
+        <v>1</v>
+      </c>
+      <c r="M8" s="38">
+        <v>3.1</v>
+      </c>
+      <c r="N8" s="70">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="O8" s="71"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69">
+        <v>1</v>
+      </c>
+      <c r="S8" s="69"/>
+      <c r="T8" s="70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U8" s="72">
         <f t="shared" si="2"/>
         <v>7.9</v>
       </c>
-      <c r="V5" s="40">
+      <c r="V8" s="73">
         <f t="shared" si="3"/>
         <v>2.6333333333333333</v>
       </c>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="41" t="str">
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="74" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="29">
-        <f>MIN(H4:H11)</f>
-        <v>1.4</v>
-      </c>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="70"/>
-      <c r="AK5" s="29">
-        <f>MIN(N4:N11)</f>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="33"/>
+    </row>
+    <row r="9" spans="2:43" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="75">
+        <v>6</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="77">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="77">
+        <v>1</v>
+      </c>
+      <c r="G9" s="77">
+        <v>2</v>
+      </c>
+      <c r="H9" s="78">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="79"/>
+      <c r="J9" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="38">
+        <v>1</v>
+      </c>
+      <c r="M9" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="N9" s="78">
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN5" s="72"/>
-      <c r="AO5" s="72"/>
-      <c r="AP5" s="72"/>
-      <c r="AQ5" s="32">
-        <f>MIN(T4:T11)</f>
-        <v>1</v>
-      </c>
+      <c r="O9" s="79">
+        <v>5</v>
+      </c>
+      <c r="P9" s="77">
+        <v>0.7</v>
+      </c>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77">
+        <v>1</v>
+      </c>
+      <c r="S9" s="77"/>
+      <c r="T9" s="78">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="U9" s="80">
+        <f t="shared" si="2"/>
+        <v>7.8</v>
+      </c>
+      <c r="V9" s="81">
+        <f t="shared" si="3"/>
+        <v>2.6</v>
+      </c>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="82" t="str">
+        <f t="shared" si="4"/>
+        <v>PROVÃO</v>
+      </c>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="63"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH9" s="63"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="63"/>
+      <c r="AK9" s="63"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
     </row>
-    <row r="6" spans="2:43" s="33" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
+    <row r="10" spans="2:43" s="25" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="67">
+        <v>7</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="69">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="69">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="69">
+        <v>1</v>
+      </c>
+      <c r="G10" s="69">
+        <v>2</v>
+      </c>
+      <c r="H10" s="70">
+        <f t="shared" si="5"/>
+        <v>3.8</v>
+      </c>
+      <c r="I10" s="71">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F6" s="22">
-        <v>1</v>
-      </c>
-      <c r="G6" s="22">
+      <c r="J10" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="K10" s="37">
         <v>1.5</v>
       </c>
-      <c r="H6" s="23">
+      <c r="L10" s="38">
+        <v>1</v>
+      </c>
+      <c r="M10" s="38">
+        <v>2.5</v>
+      </c>
+      <c r="N10" s="70">
+        <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
+      <c r="O10" s="71"/>
+      <c r="P10" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69">
+        <v>1</v>
+      </c>
+      <c r="S10" s="69"/>
+      <c r="T10" s="70">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="U10" s="72">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="V10" s="73">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>PROVÃO</v>
+      </c>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH10" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="64">
+        <v>5</v>
+      </c>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="64"/>
+    </row>
+    <row r="11" spans="2:43" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="75">
+        <v>8</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="77">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="77">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F11" s="77">
+        <v>1</v>
+      </c>
+      <c r="G11" s="77">
+        <v>1</v>
+      </c>
+      <c r="H11" s="78">
         <f t="shared" si="5"/>
         <v>3.3</v>
       </c>
-      <c r="I6" s="24">
-        <v>3</v>
-      </c>
-      <c r="J6" s="63">
-        <v>1.4</v>
-      </c>
-      <c r="K6" s="63">
-        <v>0.6</v>
-      </c>
-      <c r="L6" s="64">
-        <v>1</v>
-      </c>
-      <c r="M6" s="64">
-        <v>2.5</v>
-      </c>
-      <c r="N6" s="23">
+      <c r="I11" s="79">
+        <v>3.3</v>
+      </c>
+      <c r="J11" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="L11" s="38">
+        <v>1</v>
+      </c>
+      <c r="M11" s="38">
+        <v>2.6</v>
+      </c>
+      <c r="N11" s="78">
         <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="22">
+        <v>4.3</v>
+      </c>
+      <c r="O11" s="79">
+        <v>5</v>
+      </c>
+      <c r="P11" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77">
+        <v>1</v>
+      </c>
+      <c r="S11" s="77"/>
+      <c r="T11" s="78">
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22">
-        <v>1</v>
-      </c>
-      <c r="S6" s="22"/>
-      <c r="T6" s="23">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
-      </c>
-      <c r="U6" s="25">
+      <c r="U11" s="83">
         <f t="shared" si="2"/>
-        <v>10.9</v>
-      </c>
-      <c r="V6" s="26">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="V11" s="84">
         <f t="shared" si="3"/>
-        <v>3.6333333333333333</v>
-      </c>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="27" t="str">
+        <v>2.9</v>
+      </c>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="82" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="42">
-        <f>COUNTIF(H4:H11,"&gt;="&amp;7)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH6" s="70"/>
-      <c r="AI6" s="70"/>
-      <c r="AJ6" s="70"/>
-      <c r="AK6" s="42">
-        <f>COUNTIF(N4:N11,"&gt;="&amp;7)</f>
-        <v>0</v>
-      </c>
-      <c r="AL6" s="44"/>
-      <c r="AM6" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="45">
-        <f>COUNTIF(T4:T11,"&gt;="&amp;7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:43" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34">
-        <v>4</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="36">
-        <v>0.6</v>
-      </c>
-      <c r="E7" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="F7" s="36">
-        <v>1</v>
-      </c>
-      <c r="G7" s="36">
-        <v>2</v>
-      </c>
-      <c r="H7" s="37">
-        <f t="shared" si="5"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I7" s="38">
-        <v>3.3</v>
-      </c>
-      <c r="J7" s="63">
-        <v>0.4</v>
-      </c>
-      <c r="K7" s="63">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="64">
-        <v>1</v>
-      </c>
-      <c r="M7" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="37">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="O7" s="38">
-        <v>5</v>
-      </c>
-      <c r="P7" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36">
-        <v>1</v>
-      </c>
-      <c r="S7" s="36"/>
-      <c r="T7" s="37">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="U7" s="39">
-        <f t="shared" si="2"/>
-        <v>8.6000000000000014</v>
-      </c>
-      <c r="V7" s="40">
-        <f t="shared" si="3"/>
-        <v>2.8666666666666671</v>
-      </c>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>PROVÃO</v>
-      </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="46">
-        <f>COUNTIF(H4:H11,"&lt;"&amp;7)</f>
-        <v>8</v>
-      </c>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="74"/>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="46">
-        <f>COUNTIF(N4:N11,"&lt;"&amp;7)</f>
-        <v>8</v>
-      </c>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN7" s="76"/>
-      <c r="AO7" s="76"/>
-      <c r="AP7" s="76"/>
-      <c r="AQ7" s="47">
-        <f>COUNTIF(T4:T11,"&lt;"&amp;7)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:43" s="33" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
-        <v>5</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22">
-        <v>1</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23">
-        <f t="shared" si="5"/>
-        <v>1.4</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="63">
-        <v>0.7</v>
-      </c>
-      <c r="K8" s="63">
-        <v>0.7</v>
-      </c>
-      <c r="L8" s="64">
-        <v>1</v>
-      </c>
-      <c r="M8" s="64">
-        <v>3.1</v>
-      </c>
-      <c r="N8" s="23">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22">
-        <v>1</v>
-      </c>
-      <c r="S8" s="22"/>
-      <c r="T8" s="23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U8" s="25">
-        <f t="shared" si="2"/>
-        <v>7.9</v>
-      </c>
-      <c r="V8" s="26">
-        <f t="shared" si="3"/>
-        <v>2.6333333333333333</v>
-      </c>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>PROVÃO</v>
-      </c>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="43"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="44"/>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="49"/>
-    </row>
-    <row r="9" spans="2:43" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34">
-        <v>6</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="E9" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="36">
-        <v>1</v>
-      </c>
-      <c r="G9" s="36">
-        <v>2</v>
-      </c>
-      <c r="H9" s="37">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="63">
-        <v>0.3</v>
-      </c>
-      <c r="K9" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="64">
-        <v>1</v>
-      </c>
-      <c r="M9" s="64">
-        <v>0.8</v>
-      </c>
-      <c r="N9" s="37">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="O9" s="38">
-        <v>5</v>
-      </c>
-      <c r="P9" s="36">
-        <v>0.7</v>
-      </c>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36">
-        <v>1</v>
-      </c>
-      <c r="S9" s="36"/>
-      <c r="T9" s="37">
-        <f t="shared" si="1"/>
-        <v>1.7</v>
-      </c>
-      <c r="U9" s="39">
-        <f t="shared" si="2"/>
-        <v>7.8</v>
-      </c>
-      <c r="V9" s="40">
-        <f t="shared" si="3"/>
-        <v>2.6</v>
-      </c>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>PROVÃO</v>
-      </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="44"/>
-      <c r="AM9" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="67"/>
-      <c r="AP9" s="67"/>
-      <c r="AQ9" s="67"/>
-    </row>
-    <row r="10" spans="2:43" s="33" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
-        <v>7</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="E10" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F10" s="22">
-        <v>1</v>
-      </c>
-      <c r="G10" s="22">
-        <v>2</v>
-      </c>
-      <c r="H10" s="23">
-        <f t="shared" si="5"/>
-        <v>3.8</v>
-      </c>
-      <c r="I10" s="24">
-        <v>3</v>
-      </c>
-      <c r="J10" s="63">
-        <v>1.3</v>
-      </c>
-      <c r="K10" s="63">
-        <v>1.5</v>
-      </c>
-      <c r="L10" s="64">
-        <v>1</v>
-      </c>
-      <c r="M10" s="64">
-        <v>2.5</v>
-      </c>
-      <c r="N10" s="23">
-        <f t="shared" si="0"/>
-        <v>6.3</v>
-      </c>
-      <c r="O10" s="24"/>
-      <c r="P10" s="22">
-        <v>0.9</v>
-      </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22">
-        <v>1</v>
-      </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="23">
-        <f t="shared" si="1"/>
-        <v>1.9</v>
-      </c>
-      <c r="U10" s="25">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="V10" s="26">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>PROVÃO</v>
-      </c>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB10" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC10" s="68"/>
-      <c r="AD10" s="68"/>
-      <c r="AE10" s="68"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH10" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="67">
-        <v>5</v>
-      </c>
-      <c r="AN10" s="67"/>
-      <c r="AO10" s="67"/>
-      <c r="AP10" s="67"/>
-      <c r="AQ10" s="67"/>
-    </row>
-    <row r="11" spans="2:43" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="34">
-        <v>8</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="E11" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="F11" s="36">
-        <v>1</v>
-      </c>
-      <c r="G11" s="36">
-        <v>1</v>
-      </c>
-      <c r="H11" s="37">
-        <f t="shared" si="5"/>
-        <v>2.4</v>
-      </c>
-      <c r="I11" s="38">
-        <v>3.3</v>
-      </c>
-      <c r="J11" s="63">
-        <v>0.4</v>
-      </c>
-      <c r="K11" s="63">
-        <v>0.3</v>
-      </c>
-      <c r="L11" s="64">
-        <v>1</v>
-      </c>
-      <c r="M11" s="64">
-        <v>2.6</v>
-      </c>
-      <c r="N11" s="37">
-        <f t="shared" si="0"/>
-        <v>4.3</v>
-      </c>
-      <c r="O11" s="38">
-        <v>5</v>
-      </c>
-      <c r="P11" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36">
-        <v>1</v>
-      </c>
-      <c r="S11" s="36"/>
-      <c r="T11" s="37">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U11" s="51">
-        <f t="shared" si="2"/>
-        <v>7.7999999999999989</v>
-      </c>
-      <c r="V11" s="52">
-        <f t="shared" si="3"/>
-        <v>2.5999999999999996</v>
-      </c>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>PROVÃO</v>
-      </c>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="50" t="s">
+      <c r="AA11" s="34" t="s">
         <v>37</v>
       </c>
       <c r="AB11" s="66" t="s">
@@ -3204,381 +3181,381 @@
       <c r="AC11" s="66"/>
       <c r="AD11" s="66"/>
       <c r="AE11" s="66"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="50" t="s">
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="AH11" s="65" t="s">
+      <c r="AH11" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="AI11" s="65"/>
-      <c r="AJ11" s="65"/>
-      <c r="AK11" s="65"/>
-      <c r="AL11" s="44"/>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="44"/>
-      <c r="AO11" s="44"/>
-      <c r="AP11" s="44"/>
-      <c r="AQ11" s="49"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="63"/>
+      <c r="AK11" s="63"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="33"/>
     </row>
-    <row r="12" spans="2:43" s="33" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20">
+    <row r="12" spans="2:43" s="25" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="67">
         <v>9</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="E12" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="F12" s="22">
-        <v>1</v>
-      </c>
-      <c r="G12" s="22">
+      <c r="D12" s="69">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="69">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="69">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="69">
         <v>0.5</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="70">
         <f t="shared" si="5"/>
-        <v>1.8</v>
-      </c>
-      <c r="I12" s="24">
         <v>5</v>
       </c>
-      <c r="J12" s="63">
+      <c r="I12" s="71">
+        <v>5</v>
+      </c>
+      <c r="J12" s="37">
         <v>0.6</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="37">
         <v>0.4</v>
       </c>
-      <c r="L12" s="64">
-        <v>1</v>
-      </c>
-      <c r="M12" s="64">
+      <c r="L12" s="38">
+        <v>1</v>
+      </c>
+      <c r="M12" s="38">
         <v>0.9</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="70">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="71">
         <v>5</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="69">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22">
-        <v>1</v>
-      </c>
-      <c r="S12" s="22"/>
-      <c r="T12" s="23">
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69">
+        <v>1</v>
+      </c>
+      <c r="S12" s="69"/>
+      <c r="T12" s="70">
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="U12" s="53">
+      <c r="U12" s="85">
         <f t="shared" si="2"/>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="V12" s="54">
+        <v>10</v>
+      </c>
+      <c r="V12" s="86">
         <f t="shared" si="3"/>
-        <v>2.2666666666666671</v>
-      </c>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="27" t="str">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="74" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="50" t="s">
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AB12" s="65" t="s">
+      <c r="AB12" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="50" t="s">
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="AH12" s="65" t="s">
+      <c r="AH12" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="65"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="49"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="63"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="28"/>
+      <c r="AN12" s="28"/>
+      <c r="AO12" s="28"/>
+      <c r="AP12" s="28"/>
+      <c r="AQ12" s="33"/>
     </row>
-    <row r="13" spans="2:43" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34">
+    <row r="13" spans="2:43" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="75">
         <v>10</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="77">
         <v>0.4</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="77">
         <v>0.4</v>
       </c>
-      <c r="F13" s="36">
-        <v>1</v>
-      </c>
-      <c r="G13" s="36">
+      <c r="F13" s="77">
+        <v>1</v>
+      </c>
+      <c r="G13" s="77">
         <v>2.5</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="78">
         <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="79">
         <v>3.3</v>
       </c>
-      <c r="J13" s="63">
+      <c r="J13" s="37">
         <v>0.1</v>
       </c>
-      <c r="K13" s="63">
+      <c r="K13" s="37">
         <v>0.4</v>
       </c>
-      <c r="L13" s="64">
-        <v>1</v>
-      </c>
-      <c r="M13" s="64">
+      <c r="L13" s="38">
+        <v>1</v>
+      </c>
+      <c r="M13" s="38">
         <v>1.6</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="78">
         <f t="shared" si="0"/>
         <v>3.1</v>
       </c>
-      <c r="O13" s="38">
+      <c r="O13" s="79">
         <v>5</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13" s="77">
         <v>0.8</v>
       </c>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36">
-        <v>1</v>
-      </c>
-      <c r="S13" s="36"/>
-      <c r="T13" s="37">
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77">
+        <v>1</v>
+      </c>
+      <c r="S13" s="77"/>
+      <c r="T13" s="78">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="U13" s="55">
+      <c r="U13" s="87">
         <f t="shared" si="2"/>
         <v>9.2000000000000011</v>
       </c>
-      <c r="V13" s="56">
+      <c r="V13" s="88">
         <f t="shared" si="3"/>
         <v>3.0666666666666669</v>
       </c>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="41" t="str">
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="82" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="50" t="s">
+      <c r="AA13" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AB13" s="65" t="s">
+      <c r="AB13" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="50" t="s">
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="63"/>
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="AH13" s="65" t="s">
+      <c r="AH13" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="65"/>
-      <c r="AK13" s="65"/>
-      <c r="AL13" s="44"/>
-      <c r="AM13" s="44"/>
-      <c r="AN13" s="44"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="49"/>
+      <c r="AI13" s="63"/>
+      <c r="AJ13" s="63"/>
+      <c r="AK13" s="63"/>
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="28"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="28"/>
+      <c r="AQ13" s="33"/>
     </row>
-    <row r="14" spans="2:43" s="33" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20">
+    <row r="14" spans="2:43" s="25" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="67">
         <v>11</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F14" s="22">
-        <v>1</v>
-      </c>
-      <c r="G14" s="22">
+      <c r="D14" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="E14" s="69">
+        <v>1.4</v>
+      </c>
+      <c r="F14" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="G14" s="69">
         <v>0.5</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="70">
         <f t="shared" si="5"/>
-        <v>2.1</v>
-      </c>
-      <c r="I14" s="24">
         <v>4.3</v>
       </c>
-      <c r="J14" s="63">
+      <c r="I14" s="71">
+        <v>4.3</v>
+      </c>
+      <c r="J14" s="37">
         <v>0.5</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="37">
         <v>0.6</v>
       </c>
-      <c r="L14" s="64">
-        <v>1</v>
-      </c>
-      <c r="M14" s="64">
+      <c r="L14" s="38">
+        <v>1</v>
+      </c>
+      <c r="M14" s="38">
         <v>3</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="70">
         <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="O14" s="24"/>
-      <c r="P14" s="22">
+      <c r="O14" s="71"/>
+      <c r="P14" s="69">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22">
-        <v>1</v>
-      </c>
-      <c r="S14" s="22"/>
-      <c r="T14" s="23">
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69">
+        <v>1</v>
+      </c>
+      <c r="S14" s="69"/>
+      <c r="T14" s="70">
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="U14" s="53">
+      <c r="U14" s="85">
         <f t="shared" si="2"/>
-        <v>9.2999999999999989</v>
-      </c>
-      <c r="V14" s="54">
+        <v>11.499999999999998</v>
+      </c>
+      <c r="V14" s="86">
         <f t="shared" si="3"/>
-        <v>3.0999999999999996</v>
-      </c>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="27" t="str">
+        <v>3.8333333333333326</v>
+      </c>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="74" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="50" t="s">
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="AB14" s="65" t="s">
+      <c r="AB14" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="43"/>
-      <c r="AG14" s="50" t="s">
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AH14" s="65" t="s">
+      <c r="AH14" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="AI14" s="65"/>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="65"/>
-      <c r="AL14" s="44"/>
-      <c r="AM14" s="44"/>
-      <c r="AN14" s="44"/>
-      <c r="AO14" s="44"/>
-      <c r="AP14" s="44"/>
-      <c r="AQ14" s="49"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="33"/>
     </row>
-    <row r="15" spans="2:43" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34">
+    <row r="15" spans="2:43" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="75">
         <v>12</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="36">
-        <v>0.6</v>
-      </c>
-      <c r="E15" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="F15" s="36">
-        <v>1</v>
-      </c>
-      <c r="G15" s="36">
+      <c r="D15" s="77">
+        <v>1.6</v>
+      </c>
+      <c r="E15" s="77">
+        <v>0.7</v>
+      </c>
+      <c r="F15" s="77">
+        <v>1</v>
+      </c>
+      <c r="G15" s="77">
         <v>0.5</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="78">
         <f t="shared" si="5"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I15" s="38">
         <v>3.8</v>
       </c>
-      <c r="J15" s="63">
+      <c r="I15" s="79">
+        <v>3.8</v>
+      </c>
+      <c r="J15" s="37">
         <v>1.8</v>
       </c>
-      <c r="K15" s="63">
+      <c r="K15" s="37">
         <v>1.6</v>
       </c>
-      <c r="L15" s="64">
-        <v>1</v>
-      </c>
-      <c r="M15" s="64">
+      <c r="L15" s="38">
+        <v>1</v>
+      </c>
+      <c r="M15" s="38">
         <v>1.9</v>
       </c>
-      <c r="N15" s="37">
+      <c r="N15" s="78">
         <f t="shared" si="0"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="O15" s="38"/>
-      <c r="P15" s="36">
+      <c r="O15" s="79"/>
+      <c r="P15" s="77">
         <v>0.2</v>
       </c>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36">
-        <v>1</v>
-      </c>
-      <c r="S15" s="36"/>
-      <c r="T15" s="37">
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77">
+        <v>1</v>
+      </c>
+      <c r="S15" s="77"/>
+      <c r="T15" s="78">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="U15" s="55">
+      <c r="U15" s="87">
         <f t="shared" si="2"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="V15" s="56">
+        <v>11.3</v>
+      </c>
+      <c r="V15" s="88">
         <f t="shared" si="3"/>
-        <v>3.2333333333333329</v>
-      </c>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="41" t="str">
+        <v>3.7666666666666671</v>
+      </c>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="82" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
@@ -3595,154 +3572,154 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
     </row>
-    <row r="16" spans="2:43" s="33" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20">
+    <row r="16" spans="2:43" s="25" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="67">
         <v>13</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="69">
+        <v>1.6</v>
+      </c>
+      <c r="E16" s="69">
         <v>0.4</v>
       </c>
-      <c r="E16" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F16" s="22">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22">
+      <c r="F16" s="69">
+        <v>1</v>
+      </c>
+      <c r="G16" s="69">
         <v>2</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="70">
         <f t="shared" si="5"/>
-        <v>3.8</v>
-      </c>
-      <c r="I16" s="24">
         <v>5</v>
       </c>
-      <c r="J16" s="63">
+      <c r="I16" s="71">
+        <v>5</v>
+      </c>
+      <c r="J16" s="37">
         <v>0.7</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="37">
         <v>0.6</v>
       </c>
-      <c r="L16" s="64">
-        <v>1</v>
-      </c>
-      <c r="M16" s="64">
+      <c r="L16" s="38">
+        <v>1</v>
+      </c>
+      <c r="M16" s="38">
         <v>2.7</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="70">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O16" s="24"/>
-      <c r="P16" s="22">
+      <c r="O16" s="71"/>
+      <c r="P16" s="69">
         <v>1.2</v>
       </c>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22">
-        <v>1</v>
-      </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="23">
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69">
+        <v>1</v>
+      </c>
+      <c r="S16" s="69"/>
+      <c r="T16" s="70">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="U16" s="53">
+      <c r="U16" s="85">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="V16" s="54">
+        <v>12.2</v>
+      </c>
+      <c r="V16" s="86">
         <f t="shared" si="3"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="27" t="str">
+        <v>4.0666666666666664</v>
+      </c>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="74" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="28"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="20"/>
     </row>
-    <row r="17" spans="1:37" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34">
+    <row r="17" spans="1:37" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="75">
         <v>14</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="77">
         <v>0.4</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="77">
         <v>0.4</v>
       </c>
-      <c r="F17" s="36">
-        <v>1</v>
-      </c>
-      <c r="G17" s="36">
-        <v>1</v>
-      </c>
-      <c r="H17" s="37">
+      <c r="F17" s="77">
+        <v>1</v>
+      </c>
+      <c r="G17" s="77">
+        <v>1</v>
+      </c>
+      <c r="H17" s="78">
         <f t="shared" si="5"/>
         <v>2.8</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="79">
         <v>1.4</v>
       </c>
-      <c r="J17" s="63">
+      <c r="J17" s="37">
         <v>0.2</v>
       </c>
-      <c r="K17" s="63">
+      <c r="K17" s="37">
         <v>0.5</v>
       </c>
-      <c r="L17" s="64">
-        <v>1</v>
-      </c>
-      <c r="M17" s="64">
+      <c r="L17" s="38">
+        <v>1</v>
+      </c>
+      <c r="M17" s="38">
         <v>3.4</v>
       </c>
-      <c r="N17" s="37">
+      <c r="N17" s="78">
         <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="O17" s="38"/>
-      <c r="P17" s="36">
+      <c r="O17" s="79"/>
+      <c r="P17" s="77">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36">
-        <v>1</v>
-      </c>
-      <c r="S17" s="36"/>
-      <c r="T17" s="37">
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77">
+        <v>1</v>
+      </c>
+      <c r="S17" s="77"/>
+      <c r="T17" s="78">
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="U17" s="55">
+      <c r="U17" s="87">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="V17" s="56">
+      <c r="V17" s="88">
         <f t="shared" si="3"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="41" t="str">
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="82" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
@@ -3759,160 +3736,160 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
     </row>
-    <row r="18" spans="1:37" s="33" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="20">
+    <row r="18" spans="1:37" s="25" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="67">
         <v>15</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="69">
         <v>0.6</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="69">
         <v>0.2</v>
       </c>
-      <c r="F18" s="22">
-        <v>1</v>
-      </c>
-      <c r="G18" s="22">
+      <c r="F18" s="69">
+        <v>1</v>
+      </c>
+      <c r="G18" s="69">
         <v>1.5</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="70">
         <f t="shared" si="5"/>
         <v>3.3</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="71">
         <v>1.7</v>
       </c>
-      <c r="J18" s="63">
+      <c r="J18" s="37">
         <v>0.4</v>
       </c>
-      <c r="K18" s="63">
+      <c r="K18" s="37">
         <v>0.2</v>
       </c>
-      <c r="L18" s="64">
-        <v>1</v>
-      </c>
-      <c r="M18" s="64">
+      <c r="L18" s="38">
+        <v>1</v>
+      </c>
+      <c r="M18" s="38">
         <v>1.7</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="70">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="71">
         <v>5</v>
       </c>
-      <c r="P18" s="22">
+      <c r="P18" s="69">
         <v>0.9</v>
       </c>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22">
-        <v>1</v>
-      </c>
-      <c r="S18" s="22"/>
-      <c r="T18" s="23">
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69">
+        <v>1</v>
+      </c>
+      <c r="S18" s="69"/>
+      <c r="T18" s="70">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="U18" s="53">
+      <c r="U18" s="85">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="V18" s="54">
+      <c r="V18" s="86">
         <f t="shared" si="3"/>
         <v>2.8333333333333335</v>
       </c>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="27" t="str">
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="74" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
     </row>
-    <row r="19" spans="1:37" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="34">
+    <row r="19" spans="1:37" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="75">
         <v>16</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="36">
-        <v>1</v>
-      </c>
-      <c r="E19" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="F19" s="36">
-        <v>1</v>
-      </c>
-      <c r="G19" s="36">
+      <c r="D19" s="77">
+        <v>1</v>
+      </c>
+      <c r="E19" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="77">
+        <v>1</v>
+      </c>
+      <c r="G19" s="77">
         <v>2.5</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="78">
         <f t="shared" si="5"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I19" s="38">
         <v>5</v>
       </c>
-      <c r="J19" s="63">
+      <c r="I19" s="79">
+        <v>5</v>
+      </c>
+      <c r="J19" s="37">
         <v>0.5</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="37">
         <v>0.5</v>
       </c>
-      <c r="L19" s="64">
-        <v>1</v>
-      </c>
-      <c r="M19" s="64">
+      <c r="L19" s="38">
+        <v>1</v>
+      </c>
+      <c r="M19" s="38">
         <v>1.3</v>
       </c>
-      <c r="N19" s="37">
+      <c r="N19" s="78">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="O19" s="38">
+      <c r="O19" s="79">
         <v>5</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P19" s="77">
         <v>0.5</v>
       </c>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36">
-        <v>1</v>
-      </c>
-      <c r="S19" s="36"/>
-      <c r="T19" s="37">
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77">
+        <v>1</v>
+      </c>
+      <c r="S19" s="77"/>
+      <c r="T19" s="78">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="U19" s="55">
+      <c r="U19" s="87">
         <f t="shared" si="2"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="V19" s="56">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="V19" s="88">
         <f t="shared" si="3"/>
-        <v>3.2333333333333329</v>
-      </c>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="41" t="str">
+        <v>3.2666666666666671</v>
+      </c>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="82" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
@@ -3929,156 +3906,156 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
     </row>
-    <row r="20" spans="1:37" s="33" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="20">
+    <row r="20" spans="1:37" s="25" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="67">
         <v>17</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="22">
-        <v>1</v>
-      </c>
-      <c r="E20" s="22">
+      <c r="D20" s="69">
+        <v>1.8</v>
+      </c>
+      <c r="E20" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="F20" s="69">
+        <v>1</v>
+      </c>
+      <c r="G20" s="69">
+        <v>1</v>
+      </c>
+      <c r="H20" s="70">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I20" s="71">
+        <v>5</v>
+      </c>
+      <c r="J20" s="37">
         <v>0.2</v>
       </c>
-      <c r="F20" s="22">
-        <v>1</v>
-      </c>
-      <c r="G20" s="22">
-        <v>1</v>
-      </c>
-      <c r="H20" s="23">
-        <f t="shared" si="5"/>
-        <v>3.2</v>
-      </c>
-      <c r="I20" s="24">
-        <v>5</v>
-      </c>
-      <c r="J20" s="63">
-        <v>0.2</v>
-      </c>
-      <c r="K20" s="63">
+      <c r="K20" s="37">
         <v>0.4</v>
       </c>
-      <c r="L20" s="64">
-        <v>1</v>
-      </c>
-      <c r="M20" s="64">
+      <c r="L20" s="38">
+        <v>1</v>
+      </c>
+      <c r="M20" s="38">
         <v>1.6</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="70">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="71">
         <v>5</v>
       </c>
-      <c r="P20" s="22">
+      <c r="P20" s="69">
         <v>0.1</v>
       </c>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22">
-        <v>1</v>
-      </c>
-      <c r="S20" s="22"/>
-      <c r="T20" s="23">
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69">
+        <v>1</v>
+      </c>
+      <c r="S20" s="69"/>
+      <c r="T20" s="70">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="U20" s="53">
+      <c r="U20" s="85">
         <f t="shared" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="V20" s="54">
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="V20" s="86">
         <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="27" t="str">
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="74" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="28"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
     </row>
-    <row r="21" spans="1:37" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="34">
+    <row r="21" spans="1:37" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="75">
         <v>18</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="77">
         <v>0.4</v>
       </c>
-      <c r="E21" s="36">
-        <v>1</v>
-      </c>
-      <c r="F21" s="36">
-        <v>1</v>
-      </c>
-      <c r="G21" s="36">
+      <c r="E21" s="77">
+        <v>1</v>
+      </c>
+      <c r="F21" s="77">
+        <v>1</v>
+      </c>
+      <c r="G21" s="77">
         <v>3</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="78">
         <f t="shared" si="5"/>
         <v>5.4</v>
       </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="63">
+      <c r="I21" s="79"/>
+      <c r="J21" s="37">
         <v>0.8</v>
       </c>
-      <c r="K21" s="63">
+      <c r="K21" s="37">
         <v>0.6</v>
       </c>
-      <c r="L21" s="64">
-        <v>1</v>
-      </c>
-      <c r="M21" s="64">
+      <c r="L21" s="38">
+        <v>1</v>
+      </c>
+      <c r="M21" s="38">
         <v>3.6</v>
       </c>
-      <c r="N21" s="37">
+      <c r="N21" s="78">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="O21" s="38"/>
-      <c r="P21" s="36">
+      <c r="O21" s="79"/>
+      <c r="P21" s="77">
         <v>0.7</v>
       </c>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36">
-        <v>1</v>
-      </c>
-      <c r="S21" s="36"/>
-      <c r="T21" s="37">
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77">
+        <v>1</v>
+      </c>
+      <c r="S21" s="77"/>
+      <c r="T21" s="78">
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="U21" s="55">
+      <c r="U21" s="87">
         <f t="shared" si="2"/>
         <v>13.1</v>
       </c>
-      <c r="V21" s="56">
+      <c r="V21" s="88">
         <f t="shared" si="3"/>
         <v>4.3666666666666663</v>
       </c>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="41" t="str">
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="82" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
@@ -4095,160 +4072,160 @@
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
     </row>
-    <row r="22" spans="1:37" s="33" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="20">
+    <row r="22" spans="1:37" s="25" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="67">
         <v>19</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="69">
         <v>0.4</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="69">
         <v>0.4</v>
       </c>
-      <c r="F22" s="22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="22">
+      <c r="F22" s="69">
+        <v>1</v>
+      </c>
+      <c r="G22" s="69">
         <v>1.5</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="70">
         <f t="shared" si="5"/>
         <v>3.3</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="71">
         <v>3.3</v>
       </c>
-      <c r="J22" s="63">
+      <c r="J22" s="37">
         <v>0.1</v>
       </c>
-      <c r="K22" s="63" t="s">
+      <c r="K22" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="L22" s="64">
-        <v>1</v>
-      </c>
-      <c r="M22" s="64">
+      <c r="L22" s="38">
+        <v>1</v>
+      </c>
+      <c r="M22" s="38">
         <v>0.9</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="70">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O22" s="24" t="s">
+      <c r="O22" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="P22" s="22">
+      <c r="P22" s="69">
         <v>0.5</v>
       </c>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22">
-        <v>1</v>
-      </c>
-      <c r="S22" s="22"/>
-      <c r="T22" s="23">
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69">
+        <v>1</v>
+      </c>
+      <c r="S22" s="69"/>
+      <c r="T22" s="70">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="U22" s="53">
+      <c r="U22" s="85">
         <f t="shared" si="2"/>
         <v>6.8</v>
       </c>
-      <c r="V22" s="54">
+      <c r="V22" s="86">
         <f t="shared" si="3"/>
         <v>2.2666666666666666</v>
       </c>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="27" t="str">
+      <c r="W22" s="85"/>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="74" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="28"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
     </row>
-    <row r="23" spans="1:37" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="34">
+    <row r="23" spans="1:37" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="75">
         <v>20</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="77">
         <v>0.8</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="77">
         <v>0.4</v>
       </c>
-      <c r="F23" s="36">
-        <v>1</v>
-      </c>
-      <c r="G23" s="36">
+      <c r="F23" s="77">
+        <v>1</v>
+      </c>
+      <c r="G23" s="77">
         <v>1.5</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="78">
         <f t="shared" si="5"/>
         <v>3.7</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="79">
         <v>2.5</v>
       </c>
-      <c r="J23" s="63">
+      <c r="J23" s="37">
         <v>1.2</v>
       </c>
-      <c r="K23" s="63" t="s">
+      <c r="K23" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="L23" s="64">
-        <v>1</v>
-      </c>
-      <c r="M23" s="64">
+      <c r="L23" s="38">
+        <v>1</v>
+      </c>
+      <c r="M23" s="38">
         <v>2.6</v>
       </c>
-      <c r="N23" s="37">
+      <c r="N23" s="78">
         <f t="shared" si="0"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="O23" s="38">
+      <c r="O23" s="79">
         <v>5</v>
       </c>
-      <c r="P23" s="36">
+      <c r="P23" s="77">
         <v>0.7</v>
       </c>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36">
-        <v>1</v>
-      </c>
-      <c r="S23" s="36"/>
-      <c r="T23" s="37">
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77">
+        <v>1</v>
+      </c>
+      <c r="S23" s="77"/>
+      <c r="T23" s="78">
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="U23" s="55">
+      <c r="U23" s="87">
         <f t="shared" si="2"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="V23" s="56">
+      <c r="V23" s="88">
         <f t="shared" si="3"/>
         <v>3.4</v>
       </c>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="41" t="str">
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="82" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
@@ -4265,160 +4242,160 @@
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
     </row>
-    <row r="24" spans="1:37" s="33" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="20">
+    <row r="24" spans="1:37" s="25" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="67">
         <v>21</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="69">
         <v>0.4</v>
       </c>
-      <c r="E24" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F24" s="22">
-        <v>1</v>
-      </c>
-      <c r="G24" s="22">
+      <c r="E24" s="69">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F24" s="69">
+        <v>1</v>
+      </c>
+      <c r="G24" s="69">
         <v>2.5</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="70">
         <f t="shared" si="5"/>
-        <v>4.3</v>
-      </c>
-      <c r="I24" s="24">
         <v>5</v>
       </c>
-      <c r="J24" s="63">
+      <c r="I24" s="71">
+        <v>5</v>
+      </c>
+      <c r="J24" s="37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K24" s="63">
+      <c r="K24" s="37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L24" s="64">
-        <v>1</v>
-      </c>
-      <c r="M24" s="64">
+      <c r="L24" s="38">
+        <v>1</v>
+      </c>
+      <c r="M24" s="38">
         <v>1.6</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="70">
         <f t="shared" si="0"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="71">
         <v>5</v>
       </c>
-      <c r="P24" s="22">
+      <c r="P24" s="69">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22">
-        <v>1</v>
-      </c>
-      <c r="S24" s="22"/>
-      <c r="T24" s="23">
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69">
+        <v>1</v>
+      </c>
+      <c r="S24" s="69"/>
+      <c r="T24" s="70">
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="U24" s="53">
+      <c r="U24" s="85">
         <f t="shared" si="2"/>
-        <v>11.200000000000001</v>
-      </c>
-      <c r="V24" s="54">
+        <v>11.9</v>
+      </c>
+      <c r="V24" s="86">
         <f t="shared" si="3"/>
-        <v>3.7333333333333338</v>
-      </c>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="27" t="str">
+        <v>3.9666666666666668</v>
+      </c>
+      <c r="W24" s="85"/>
+      <c r="X24" s="85"/>
+      <c r="Y24" s="74" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
     </row>
-    <row r="25" spans="1:37" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="34">
+    <row r="25" spans="1:37" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="75">
         <v>22</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="77">
         <v>0.6</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="77">
         <v>0.4</v>
       </c>
-      <c r="F25" s="36">
-        <v>1</v>
-      </c>
-      <c r="G25" s="36">
+      <c r="F25" s="77">
+        <v>1</v>
+      </c>
+      <c r="G25" s="77">
         <v>1.5</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="78">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="63">
+      <c r="J25" s="37">
         <v>0.4</v>
       </c>
-      <c r="K25" s="63">
+      <c r="K25" s="37">
         <v>0.6</v>
       </c>
-      <c r="L25" s="64">
-        <v>1</v>
-      </c>
-      <c r="M25" s="64">
+      <c r="L25" s="38">
+        <v>1</v>
+      </c>
+      <c r="M25" s="38">
         <v>2.5</v>
       </c>
-      <c r="N25" s="37">
+      <c r="N25" s="78">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="O25" s="38">
+      <c r="O25" s="79">
         <v>5</v>
       </c>
-      <c r="P25" s="36">
+      <c r="P25" s="77">
         <v>0.7</v>
       </c>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36">
-        <v>1</v>
-      </c>
-      <c r="S25" s="36"/>
-      <c r="T25" s="37">
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77">
+        <v>1</v>
+      </c>
+      <c r="S25" s="77"/>
+      <c r="T25" s="78">
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="U25" s="55">
+      <c r="U25" s="87">
         <f t="shared" si="2"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="V25" s="56">
+      <c r="V25" s="88">
         <f t="shared" si="3"/>
         <v>3.2333333333333329</v>
       </c>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="41" t="str">
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="82" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
@@ -4435,152 +4412,154 @@
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
     </row>
-    <row r="26" spans="1:37" s="33" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="20">
+    <row r="26" spans="1:37" s="25" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="67">
         <v>23</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="69">
         <v>0</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22">
-        <v>1</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23">
+      <c r="E26" s="69">
+        <v>1.9</v>
+      </c>
+      <c r="F26" s="69">
+        <v>1</v>
+      </c>
+      <c r="G26" s="69"/>
+      <c r="H26" s="70">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I26" s="24">
         <v>2.9</v>
       </c>
-      <c r="J26" s="63" t="s">
+      <c r="I26" s="71">
+        <v>2.9</v>
+      </c>
+      <c r="J26" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="63" t="s">
+      <c r="K26" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="64" t="s">
+      <c r="L26" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="M26" s="64" t="s">
+      <c r="M26" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O26" s="24"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22">
-        <v>1</v>
-      </c>
-      <c r="S26" s="22"/>
-      <c r="T26" s="23">
+      <c r="O26" s="71"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69">
+        <v>1</v>
+      </c>
+      <c r="S26" s="69"/>
+      <c r="T26" s="70">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U26" s="53">
+      <c r="U26" s="85">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="V26" s="54">
+        <v>3.9</v>
+      </c>
+      <c r="V26" s="86">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="27" t="str">
+        <v>1.3</v>
+      </c>
+      <c r="W26" s="85"/>
+      <c r="X26" s="85"/>
+      <c r="Y26" s="74" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="28"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
     </row>
-    <row r="27" spans="1:37" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="34">
+    <row r="27" spans="1:37" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="75">
         <v>24</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="77">
         <v>0.8</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="77">
         <v>0.8</v>
       </c>
-      <c r="F27" s="36">
-        <v>1</v>
-      </c>
-      <c r="G27" s="36">
-        <v>1</v>
-      </c>
-      <c r="H27" s="37">
+      <c r="F27" s="77">
+        <v>1</v>
+      </c>
+      <c r="G27" s="77">
+        <v>1</v>
+      </c>
+      <c r="H27" s="78">
         <f t="shared" si="5"/>
         <v>3.6</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="79">
         <v>1.7</v>
       </c>
-      <c r="J27" s="63">
+      <c r="J27" s="37">
         <v>0.3</v>
       </c>
-      <c r="K27" s="63">
+      <c r="K27" s="37">
         <v>0.5</v>
       </c>
-      <c r="L27" s="64">
-        <v>1</v>
-      </c>
-      <c r="M27" s="64">
+      <c r="L27" s="38">
+        <v>1</v>
+      </c>
+      <c r="M27" s="38">
         <v>1.4</v>
       </c>
-      <c r="N27" s="37">
+      <c r="N27" s="78">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="O27" s="38">
+      <c r="O27" s="79">
         <v>5</v>
       </c>
-      <c r="P27" s="36">
+      <c r="P27" s="77">
         <v>0.9</v>
       </c>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36">
-        <v>1</v>
-      </c>
-      <c r="S27" s="36"/>
-      <c r="T27" s="37">
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77">
+        <v>1</v>
+      </c>
+      <c r="S27" s="77"/>
+      <c r="T27" s="78">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="U27" s="55">
+      <c r="U27" s="87">
         <f t="shared" si="2"/>
         <v>8.7000000000000011</v>
       </c>
-      <c r="V27" s="56">
+      <c r="V27" s="88">
         <f t="shared" si="3"/>
         <v>2.9000000000000004</v>
       </c>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="41" t="str">
+      <c r="W27" s="87"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="82" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
@@ -4597,152 +4576,152 @@
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
     </row>
-    <row r="28" spans="1:37" s="33" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="20">
+    <row r="28" spans="1:37" s="25" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="67">
         <v>25</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="69">
         <v>0.8</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="69">
         <v>0.6</v>
       </c>
-      <c r="F28" s="22">
-        <v>1</v>
-      </c>
-      <c r="G28" s="22">
+      <c r="F28" s="69">
+        <v>1</v>
+      </c>
+      <c r="G28" s="69">
         <v>3</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="70">
         <f t="shared" si="5"/>
         <v>5.4</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="63" t="s">
+      <c r="I28" s="71"/>
+      <c r="J28" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="K28" s="63" t="s">
+      <c r="K28" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="L28" s="64" t="s">
+      <c r="L28" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="M28" s="64" t="s">
+      <c r="M28" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O28" s="24"/>
-      <c r="P28" s="22">
+      <c r="O28" s="71"/>
+      <c r="P28" s="69">
         <v>0</v>
       </c>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22">
-        <v>1</v>
-      </c>
-      <c r="S28" s="22"/>
-      <c r="T28" s="23">
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69">
+        <v>1</v>
+      </c>
+      <c r="S28" s="69"/>
+      <c r="T28" s="70">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U28" s="53">
+      <c r="U28" s="85">
         <f t="shared" si="2"/>
         <v>6.4</v>
       </c>
-      <c r="V28" s="54">
+      <c r="V28" s="86">
         <f t="shared" si="3"/>
         <v>2.1333333333333333</v>
       </c>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="27" t="str">
+      <c r="W28" s="85"/>
+      <c r="X28" s="85"/>
+      <c r="Y28" s="74" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="28"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
     </row>
-    <row r="29" spans="1:37" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="34">
+    <row r="29" spans="1:37" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="75">
         <v>26</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="77">
         <v>0.2</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="77">
         <v>1.2</v>
       </c>
-      <c r="F29" s="36">
-        <v>1</v>
-      </c>
-      <c r="G29" s="36">
+      <c r="F29" s="77">
+        <v>1</v>
+      </c>
+      <c r="G29" s="77">
         <v>4</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="78">
         <f t="shared" si="5"/>
         <v>6.4</v>
       </c>
-      <c r="I29" s="38"/>
-      <c r="J29" s="63">
-        <v>1</v>
-      </c>
-      <c r="K29" s="63">
+      <c r="I29" s="79"/>
+      <c r="J29" s="37">
+        <v>1</v>
+      </c>
+      <c r="K29" s="37">
         <v>0.4</v>
       </c>
-      <c r="L29" s="64">
-        <v>1</v>
-      </c>
-      <c r="M29" s="64">
+      <c r="L29" s="38">
+        <v>1</v>
+      </c>
+      <c r="M29" s="38">
         <v>4</v>
       </c>
-      <c r="N29" s="37">
+      <c r="N29" s="78">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="O29" s="38"/>
-      <c r="P29" s="36">
+      <c r="O29" s="79"/>
+      <c r="P29" s="77">
         <v>1.5</v>
       </c>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36">
-        <v>1</v>
-      </c>
-      <c r="S29" s="36"/>
-      <c r="T29" s="37">
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77">
+        <v>1</v>
+      </c>
+      <c r="S29" s="77"/>
+      <c r="T29" s="78">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="U29" s="55">
+      <c r="U29" s="87">
         <f t="shared" si="2"/>
         <v>15.3</v>
       </c>
-      <c r="V29" s="56">
+      <c r="V29" s="88">
         <f t="shared" si="3"/>
         <v>5.1000000000000005</v>
       </c>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="41" t="str">
+      <c r="W29" s="87"/>
+      <c r="X29" s="87"/>
+      <c r="Y29" s="82" t="str">
         <f t="shared" si="4"/>
         <v>APROVADO</v>
       </c>
@@ -4759,158 +4738,158 @@
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
     </row>
-    <row r="30" spans="1:37" s="33" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="20">
+    <row r="30" spans="1:37" s="25" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="67">
         <v>27</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="E30" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="F30" s="22">
-        <v>1</v>
-      </c>
-      <c r="G30" s="22">
+      <c r="D30" s="69">
+        <v>1.8</v>
+      </c>
+      <c r="E30" s="69">
+        <v>1.7</v>
+      </c>
+      <c r="F30" s="69">
+        <v>1</v>
+      </c>
+      <c r="G30" s="69">
         <v>0.5</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="70">
         <f t="shared" si="5"/>
-        <v>1.7</v>
-      </c>
-      <c r="I30" s="24">
         <v>5</v>
       </c>
-      <c r="J30" s="63">
+      <c r="I30" s="71">
+        <v>5</v>
+      </c>
+      <c r="J30" s="37">
         <v>0.6</v>
       </c>
-      <c r="K30" s="63">
+      <c r="K30" s="37">
         <v>0.4</v>
       </c>
-      <c r="L30" s="64">
-        <v>1</v>
-      </c>
-      <c r="M30" s="64">
+      <c r="L30" s="38">
+        <v>1</v>
+      </c>
+      <c r="M30" s="38">
         <v>0.9</v>
       </c>
-      <c r="N30" s="23">
+      <c r="N30" s="70">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O30" s="71">
         <v>5</v>
       </c>
-      <c r="P30" s="22">
+      <c r="P30" s="69">
         <v>0.5</v>
       </c>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22">
-        <v>1</v>
-      </c>
-      <c r="S30" s="22"/>
-      <c r="T30" s="23">
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69">
+        <v>1</v>
+      </c>
+      <c r="S30" s="69"/>
+      <c r="T30" s="70">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="U30" s="53">
+      <c r="U30" s="85">
         <f t="shared" si="2"/>
-        <v>6.1</v>
-      </c>
-      <c r="V30" s="54">
+        <v>9.4</v>
+      </c>
+      <c r="V30" s="86">
         <f t="shared" si="3"/>
-        <v>2.0333333333333332</v>
-      </c>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="27" t="str">
+        <v>3.1333333333333333</v>
+      </c>
+      <c r="W30" s="85"/>
+      <c r="X30" s="85"/>
+      <c r="Y30" s="74" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="28"/>
-      <c r="AK30" s="28"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
     </row>
-    <row r="31" spans="1:37" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="34">
+    <row r="31" spans="1:37" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="75">
         <v>28</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36">
+      <c r="D31" s="77"/>
+      <c r="E31" s="77">
         <v>0.4</v>
       </c>
-      <c r="F31" s="36">
-        <v>1</v>
-      </c>
-      <c r="G31" s="36">
+      <c r="F31" s="77">
+        <v>1</v>
+      </c>
+      <c r="G31" s="77">
         <v>2.5</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="78">
         <f t="shared" si="5"/>
         <v>3.9</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="79">
         <v>3.8</v>
       </c>
-      <c r="J31" s="63">
+      <c r="J31" s="37">
         <v>0.2</v>
       </c>
-      <c r="K31" s="63">
+      <c r="K31" s="37">
         <v>0.2</v>
       </c>
-      <c r="L31" s="64">
-        <v>1</v>
-      </c>
-      <c r="M31" s="64">
+      <c r="L31" s="38">
+        <v>1</v>
+      </c>
+      <c r="M31" s="38">
         <v>1.8</v>
       </c>
-      <c r="N31" s="37">
+      <c r="N31" s="78">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="O31" s="38">
+      <c r="O31" s="79">
         <v>5</v>
       </c>
-      <c r="P31" s="36">
+      <c r="P31" s="77">
         <v>0.9</v>
       </c>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36">
-        <v>1</v>
-      </c>
-      <c r="S31" s="36"/>
-      <c r="T31" s="37">
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77">
+        <v>1</v>
+      </c>
+      <c r="S31" s="77"/>
+      <c r="T31" s="78">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="U31" s="55">
+      <c r="U31" s="87">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="V31" s="56">
+      <c r="V31" s="88">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="W31" s="55"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="41" t="str">
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="82" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
@@ -4927,138 +4906,140 @@
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
     </row>
-    <row r="32" spans="1:37" s="33" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="20">
+    <row r="32" spans="1:37" s="25" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="67">
         <v>29</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22">
+      <c r="D32" s="69">
+        <v>1</v>
+      </c>
+      <c r="E32" s="69">
         <v>0.8</v>
       </c>
-      <c r="F32" s="22">
-        <v>1</v>
-      </c>
-      <c r="G32" s="22">
-        <v>1</v>
-      </c>
-      <c r="H32" s="23">
+      <c r="F32" s="69">
+        <v>1</v>
+      </c>
+      <c r="G32" s="69">
+        <v>1</v>
+      </c>
+      <c r="H32" s="70">
         <f t="shared" si="5"/>
-        <v>2.8</v>
-      </c>
-      <c r="I32" s="24">
         <v>3.8</v>
       </c>
-      <c r="J32" s="63">
+      <c r="I32" s="71">
+        <v>3.8</v>
+      </c>
+      <c r="J32" s="37">
         <v>0.2</v>
       </c>
-      <c r="K32" s="63">
+      <c r="K32" s="37">
         <v>0.3</v>
       </c>
-      <c r="L32" s="64">
-        <v>1</v>
-      </c>
-      <c r="M32" s="64">
+      <c r="L32" s="38">
+        <v>1</v>
+      </c>
+      <c r="M32" s="38">
         <v>1.3</v>
       </c>
-      <c r="N32" s="23">
+      <c r="N32" s="70">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="O32" s="24">
+      <c r="O32" s="71">
         <v>5</v>
       </c>
-      <c r="P32" s="22">
+      <c r="P32" s="69">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22">
-        <v>1</v>
-      </c>
-      <c r="S32" s="22"/>
-      <c r="T32" s="23">
+      <c r="Q32" s="69"/>
+      <c r="R32" s="69">
+        <v>1</v>
+      </c>
+      <c r="S32" s="69"/>
+      <c r="T32" s="70">
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="U32" s="60">
+      <c r="U32" s="90">
         <f t="shared" si="2"/>
-        <v>7.6999999999999993</v>
-      </c>
-      <c r="V32" s="61">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="V32" s="91">
         <f t="shared" si="3"/>
-        <v>2.5666666666666664</v>
-      </c>
-      <c r="W32" s="60"/>
-      <c r="X32" s="60"/>
-      <c r="Y32" s="27" t="str">
+        <v>2.9</v>
+      </c>
+      <c r="W32" s="90"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="74" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28"/>
-      <c r="AK32" s="28"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="20"/>
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="20"/>
     </row>
-    <row r="33" spans="1:37" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
-      <c r="B33" s="34">
+    <row r="33" spans="1:37" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
+      <c r="B33" s="75">
         <v>30</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37">
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I33" s="38"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="37">
+      <c r="I33" s="79"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O33" s="38"/>
-      <c r="P33" s="36">
+      <c r="O33" s="79"/>
+      <c r="P33" s="77">
         <v>0.9</v>
       </c>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36">
-        <v>1</v>
-      </c>
-      <c r="S33" s="36"/>
-      <c r="T33" s="37">
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77">
+        <v>1</v>
+      </c>
+      <c r="S33" s="77"/>
+      <c r="T33" s="78">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="U33" s="55">
+      <c r="U33" s="87">
         <f t="shared" si="2"/>
         <v>1.9</v>
       </c>
-      <c r="V33" s="56">
+      <c r="V33" s="88">
         <f t="shared" si="3"/>
         <v>0.6333333333333333</v>
       </c>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="41" t="str">
+      <c r="W33" s="87"/>
+      <c r="X33" s="87"/>
+      <c r="Y33" s="82" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
@@ -5075,49 +5056,49 @@
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
     </row>
-    <row r="34" spans="1:37" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="20">
+    <row r="34" spans="1:37" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="67">
         <v>31</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23">
+      <c r="C34" s="89"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="70">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="23">
+      <c r="I34" s="71"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O34" s="24"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="23">
+      <c r="O34" s="71"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="69"/>
+      <c r="R34" s="69"/>
+      <c r="S34" s="69"/>
+      <c r="T34" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U34" s="53">
+      <c r="U34" s="85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V34" s="54">
+      <c r="V34" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="27" t="str">
+      <c r="W34" s="85"/>
+      <c r="X34" s="85"/>
+      <c r="Y34" s="74" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
@@ -5134,49 +5115,49 @@
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
     </row>
-    <row r="35" spans="1:37" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="34">
+    <row r="35" spans="1:37" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="36"/>
+      <c r="B35" s="75">
         <v>32</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37">
+      <c r="C35" s="92"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I35" s="38"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="37">
+      <c r="I35" s="79"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O35" s="38"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="37">
+      <c r="O35" s="79"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U35" s="55">
+      <c r="U35" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V35" s="56">
+      <c r="V35" s="88">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="41" t="str">
+      <c r="W35" s="87"/>
+      <c r="X35" s="87"/>
+      <c r="Y35" s="82" t="str">
         <f t="shared" si="4"/>
         <v>PROVÃO</v>
       </c>
@@ -5195,11 +5176,26 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B1:Y1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AA9:AE9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="AG6:AJ6"/>
+    <mergeCell ref="AM6:AP6"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AM7:AP7"/>
     <mergeCell ref="AM3:AP3"/>
     <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="AG4:AJ4"/>
@@ -5208,48 +5204,33 @@
     <mergeCell ref="AG5:AJ5"/>
     <mergeCell ref="AM5:AP5"/>
     <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="AA6:AD6"/>
-    <mergeCell ref="AG6:AJ6"/>
-    <mergeCell ref="AM6:AP6"/>
-    <mergeCell ref="AA7:AD7"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="AA9:AE9"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="AA3:AD3"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D35">
-    <cfRule type="cellIs" dxfId="31" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="56" priority="38" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="37" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F35">
-    <cfRule type="cellIs" dxfId="29" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="36" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="35" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G33">
-    <cfRule type="cellIs" dxfId="27" priority="34" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="34" operator="greaterThanOrEqual">
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="33" operator="lessThan">
       <formula>2.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5257,122 +5238,123 @@
     <cfRule type="cellIs" priority="40" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="31" operator="lessThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="32" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I35">
-    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="30" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="29" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:J35">
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="46" priority="26" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="25" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K32">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="23" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="24" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L32">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="greaterThanOrEqual">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M33">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThanOrEqual">
       <formula>2.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33">
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="lessThan">
       <formula>2.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N35">
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="19" operator="lessThan">
       <formula>5</formula>
     </cfRule>
     <cfRule type="cellIs" priority="28" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="20" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O35">
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P35">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="15" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:R35">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S33">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="greaterThanOrEqual">
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="lessThan">
       <formula>2.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T35">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
       <formula>5</formula>
     </cfRule>
     <cfRule type="cellIs" priority="9" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:Y35">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>"PROVÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>"APROVADO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
